--- a/S2/Algo JS/Memo_JS_PHP.xlsx
+++ b/S2/Algo JS/Memo_JS_PHP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jey\Desktop\DUT MMI\Cours DUT MMI\S2\Algo JS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MMI\S2\Algo JS PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5D1866-5B50-4E7A-8F7E-E3D62C64755F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE876B9-4E89-4862-BF1A-53D48AE92483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Programmation script pour le front-end</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>phrase="bonjour"</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>{xxx}</t>
+  </si>
+  <si>
+    <t>let tableau = [xxx,xxx,xxx … ]</t>
   </si>
 </sst>
 </file>
@@ -773,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -893,6 +905,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1034,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>516834</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>291546</xdr:rowOff>
+      <xdr:rowOff>92763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1062,8 +1077,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>271669</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>185387</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>210235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,8 +1121,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417473</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25716</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>336315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1194,8 +1209,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>237042</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>205408</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,8 +1253,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>432735</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161174</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>351674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1541,7 +1556,7 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,478 +1690,475 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>42</v>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="26" t="s">
-        <v>43</v>
+      <c r="B33" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>58</v>
+      <c r="B42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C51" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="37" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="27" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>74</v>
+      <c r="B57" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>79</v>
-      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="12" t="s">
+    <row r="71" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="38" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="36" t="s">
+    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="12" t="s">
+    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-    </row>
-    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="31" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="32" t="s">
+    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="36" t="s">
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="11"/>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="12" t="s">
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-    </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
